--- a/biology/Zoologie/Carpophage_à_queue_bleue/Carpophage_à_queue_bleue.xlsx
+++ b/biology/Zoologie/Carpophage_à_queue_bleue/Carpophage_à_queue_bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_queue_bleue</t>
+          <t>Carpophage_à_queue_bleue</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ducula concinna
 Le Carpophage  à queue bleue (Ducula concinna) est une espèce d'oiseau appartenant à la famille des Columbidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_queue_bleue</t>
+          <t>Carpophage_à_queue_bleue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 43 cm de longueur.
 La tête, le cou, le haut du dos et les parties inférieures sont gris argenté pâle avec une nuance de rose derrière la calotte et sur la nuque. Quelques plumes blanches marquent la base du bec noir. Le dessus du corps est surtout vert foncé métallique mêlé de bleu foncé et de bronze. La queue et le dessus des ailes sont bleu pourpre métallique et le dessous noir. Les sous-caudales sont brun rouge. Les iris sont jaunes et les pattes rouges.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_queue_bleue</t>
+          <t>Carpophage_à_queue_bleue</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Nouvelle-Guinée, sur les îles de la Sonde et sur les Moluques.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_queue_bleue</t>
+          <t>Carpophage_à_queue_bleue</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Carpophage à queue bleue peuple les forêts primaires et secondaires de basse altitude ainsi que leurs lisières.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carpophage_%C3%A0_queue_bleue</t>
+          <t>Carpophage_à_queue_bleue</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les carpophages, cet oiseau se nourrit essentiellement de fruits. Ses bandes peuvent alors comporter jusqu'à une quarantaine d'individus.
 </t>
